--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H2">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I2">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J2">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>269.7416516141666</v>
+        <v>119.1357038253482</v>
       </c>
       <c r="R2">
-        <v>2427.6748645275</v>
+        <v>1072.221334428134</v>
       </c>
       <c r="S2">
-        <v>0.0793546036338014</v>
+        <v>0.02451187504306006</v>
       </c>
       <c r="T2">
-        <v>0.07935460363380137</v>
+        <v>0.02451187504306006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H3">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I3">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J3">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>98.83257343916667</v>
+        <v>100.4414000497873</v>
       </c>
       <c r="R3">
-        <v>889.4931609524999</v>
+        <v>903.9726004480859</v>
       </c>
       <c r="S3">
-        <v>0.02907530092012582</v>
+        <v>0.02066556849137075</v>
       </c>
       <c r="T3">
-        <v>0.02907530092012581</v>
+        <v>0.02066556849137074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H4">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I4">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J4">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>2990.747179831111</v>
+        <v>4572.190673474233</v>
       </c>
       <c r="R4">
-        <v>26916.72461848</v>
+        <v>41149.7160612681</v>
       </c>
       <c r="S4">
-        <v>0.8798402308438403</v>
+        <v>0.9407168704483664</v>
       </c>
       <c r="T4">
-        <v>0.8798402308438401</v>
+        <v>0.9407168704483664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.140037</v>
       </c>
       <c r="I5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>0.348121665941</v>
+        <v>0.1512907311923333</v>
       </c>
       <c r="R5">
-        <v>3.133094993469</v>
+        <v>1.361616580731</v>
       </c>
       <c r="S5">
-        <v>0.0001024130187228223</v>
+        <v>3.112769202754004E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001024130187228223</v>
+        <v>3.112769202754004E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.140037</v>
       </c>
       <c r="I6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
         <v>0.127550787611</v>
@@ -818,10 +818,10 @@
         <v>1.147957088499</v>
       </c>
       <c r="S6">
-        <v>3.752383858214095E-05</v>
+        <v>2.624325762282109E-05</v>
       </c>
       <c r="T6">
-        <v>3.752383858214093E-05</v>
+        <v>2.624325762282108E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.140037</v>
       </c>
       <c r="I7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>3.859781700085333</v>
+        <v>5.806236484360333</v>
       </c>
       <c r="R7">
-        <v>34.738035300768</v>
+        <v>52.256128359243</v>
       </c>
       <c r="S7">
-        <v>0.00113549926416772</v>
+        <v>0.001194618729778431</v>
       </c>
       <c r="T7">
-        <v>0.001135499264167719</v>
+        <v>0.001194618729778431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H8">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N8">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O8">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P8">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q8">
-        <v>2.853465569864</v>
+        <v>1.553243728297555</v>
       </c>
       <c r="R8">
-        <v>25.681190128776</v>
+        <v>13.979193554678</v>
       </c>
       <c r="S8">
-        <v>0.000839453706627207</v>
+        <v>0.0003195760377196489</v>
       </c>
       <c r="T8">
-        <v>0.0008394537066272068</v>
+        <v>0.0003195760377196489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H9">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P9">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q9">
-        <v>1.045501663544</v>
+        <v>1.309514861451333</v>
       </c>
       <c r="R9">
-        <v>9.409514971896</v>
+        <v>11.785633753062</v>
       </c>
       <c r="S9">
-        <v>0.0003075734489373047</v>
+        <v>0.0002694294289643138</v>
       </c>
       <c r="T9">
-        <v>0.0003075734489373045</v>
+        <v>0.0002694294289643138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H10">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N10">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O10">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P10">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q10">
-        <v>31.63765793954134</v>
+        <v>59.61039604521488</v>
       </c>
       <c r="R10">
-        <v>284.7389214558721</v>
+        <v>536.493564406934</v>
       </c>
       <c r="S10">
-        <v>0.009307401325195407</v>
+        <v>0.01226469087108999</v>
       </c>
       <c r="T10">
-        <v>0.009307401325195403</v>
+        <v>0.01226469087108999</v>
       </c>
     </row>
   </sheetData>
